--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/9_Ardahan_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/9_Ardahan_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F241E6C1-C603-48E3-9CF6-8D177361163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9E1CF43-CE09-4FE0-BDCF-69DE258996CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{4883D419-849B-420C-95FC-3D4E3F0C074D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="663" xr2:uid="{22E3B15B-F8CF-464A-8B94-3B307C696C34}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="91" r:id="rId1"/>
@@ -921,15 +921,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E80E713E-B0BE-4A72-B63A-6B39138AEE4E}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{09E137C6-3205-4D7A-84EA-CA8CEF66142A}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{91D4AB87-8172-4B54-8267-0278D9D2CFE2}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{A498BF4D-02D6-41CC-B958-3693DA92E322}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{53D38723-F628-438E-B920-4E22CA1D3AA8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{07374642-ADEF-4C01-8AA5-BF14806FD783}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{48282336-E8B5-462E-A356-CD0EC16D63A0}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{7DF0B7BC-0CD1-4208-ADBE-8244823887E8}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{91B03108-4244-41FF-B030-574180414A05}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9DFFF0FF-F475-4141-8DD8-431B706E6D8D}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{56715FCC-64B8-4FA0-8200-10878CCF435F}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{39E8B274-F38F-4E11-87E8-EB1C39E05958}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{0E28EF38-0BBF-4569-98C1-BDFE090EE4A0}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{395A0978-7638-4F9D-8AE8-87AA2BC0855F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{C22A81C0-1424-41C6-9CFA-55122C71969A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{AE1A0D85-5055-48FF-AD49-B82ECFFA0211}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{35A785B8-F123-428D-BCA9-E5A137E55C65}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{E5EFBAAF-EE6C-4BB7-B45B-50E3E3BDDF5C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5BB99-2357-44E4-A62D-E52FDB2E7B7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E3DF3D-0C37-4C98-AF92-6C972DEDEED8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2574,18 +2574,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EC34347-44E8-43F7-8126-B8F27DBD1634}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE9E4A3C-86A6-4B5F-BDF1-BA58A724691B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65429727-8010-4C92-B561-D2F6FD34C38A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4480C635-D9C3-4D02-8BAF-20C2039D454E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B47529A-EF91-40A8-9D29-128B1D1A605C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CB079A7-6B73-425D-8CAD-8691A1DFAD12}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66F93FA3-0DB0-4774-9910-715B9884DFC7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6EE70342-B1AA-42B9-BA37-82A332FA2ECD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53E8D95A-CC34-4638-8D79-25D9E24250C6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B3FE5CB-DEEB-4B13-940D-13ECED94C08D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B305A737-4316-41CA-A777-D3E4DE23FAD7}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{D8FCBD15-64F8-4AE0-AEF0-F4D13155488F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{55BF9473-AC04-4220-8836-771589B41B8A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9768207D-FDAF-4942-87AB-2B7E4E0E35EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C38B6D0C-86CD-46C3-AA3D-95B5723D6518}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A61293B1-2823-45B2-8089-6200261DEF23}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DECD3D83-36EF-42E8-B92F-E33E9117BCFA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C49EBAF-1F44-4AD1-BCEE-BC4DDEC5B268}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25B7A3ED-D377-4F7D-9E7F-8524C64E634A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE73B8E8-72C1-4E60-837E-91002CC61FA5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E1CECD9-9AEF-4482-B0F1-202C4F655957}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EB8F3C8B-2A24-4D46-A7FB-3421F226CFBA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E8AD4EED-D417-4564-B2EE-45AF5B7D3281}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{085A83E8-6B7F-4C7A-9E17-A7007EA18990}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2598,7 +2598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E2A708-8A04-4091-BF7C-525176F47CB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B938824-1281-45ED-933F-D85E2F4815E9}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3851,18 +3851,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB312C9B-73B7-4527-BD4A-F85D39C8D55F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5C781DE8-0526-4C00-8248-57E7E0EFB17D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17A54BDE-1EB5-468C-ACCA-CC2FA6A7EBC5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9994F208-E1A5-4347-9679-ED9DDB526331}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D69EF554-35FC-469B-A217-F5D803BA0318}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B127FFB-26A4-4545-851A-90D28051C699}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A44C450B-7D76-44CD-AC41-AC41000A3A21}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06C10C33-12D7-4C94-9993-71A2BFDC6CFE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F3DD3C6-FCBC-456C-BDB7-96ADE286399F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8ECEE349-1409-4C9A-8223-B61623086940}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{328B0122-91A2-4D94-A6DF-39BFD0FAA17B}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{9B7B3E6E-98EF-4429-9428-36E88715755F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B9889218-90D4-4EC2-94AD-15E87A63118A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3ACCE9B6-D9CA-4344-BFEA-7090203F6035}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D17B6984-0B2C-47FC-89AF-65F67491FBEE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EE9F08E4-6E8E-46F4-9099-F7306A7D1EB4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8AC23CEA-3E3A-4F05-A2A0-5F8EF39550A9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{60CD322D-658A-43DB-B6E8-E443B4A4CA46}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D3D1ADF9-E5BD-494B-B96E-96A7286E515F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{79E62D82-AA21-4695-BE56-79A6669CDD55}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B1FFC16-2048-4735-A3F9-F4E3A8612E6D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3E0F4D5B-DC3D-4563-AA7D-91F661770EEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A80F567D-FF4B-44B7-88F2-712F088B6493}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{B005D261-398B-4B9F-8736-A7D4D947BBDC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3875,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6DC6FD-2DBB-472B-9F84-13B15B1EA826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6F57A5-EB6F-4AC9-B72F-27C64FB4AF48}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5128,17 +5128,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B73B9AF5-D2A3-4666-A264-E28C17B4B8E1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{87C879F0-83FA-4684-92F3-1BCCF239502C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6EDDCF2C-EF90-4D3C-BA21-CC1044A18915}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBC783EB-9507-47BE-BBAA-2295AF1D6032}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AF5610FA-DDA3-4F63-A8CD-523CC3F5169C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{929C9A11-D328-480A-BC10-E2F17EAA33AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6ACFDBA2-E59C-4771-8BE1-4A6D867EEBDC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{448D55EB-2E83-49D4-A83F-93EF2F2ECC9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08E253D5-6B5A-48CF-9D79-C2D7636FF969}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59D997B8-C223-4B1B-B5D2-CB60E869D20C}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{256A52E7-55A3-47BE-B57B-2F9A4B9968E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{669C9FC6-3256-4B7F-9D2E-00FB428FBAD5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61A278FA-61AC-4D2A-B52C-FACCB18B9D7F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B670CE26-F1D8-4B28-98A9-E243B27BBDF1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{30865A20-85AE-4F7A-A178-8179334B7FDA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF946D4D-6018-4D61-98B6-5D07095F5AFD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F86B2B7-C563-4066-AD81-154C1E82A7E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20F4821E-B5BC-4CDB-B5B6-98EEF4A738DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F12B21C8-1734-4D5F-BBD9-DC0D62F3C6CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{42006377-2C7F-4AE8-B3BD-076F75AEDCF1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87AF7CB4-A73C-41A5-AFDD-63CCC3FDC12A}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{D6142B48-E459-48B0-B886-D5323D1B2B13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5151,7 +5151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC66C25-C449-41FC-AB75-A4352255B058}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD96F3A-C1C3-4F57-B392-E70FB7136A39}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6408,18 +6408,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18AD42F4-73C3-4F72-BEF6-47A12888C9D2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7027DF6A-A623-4B89-A387-0BBDA8A13CE7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D4F68A73-65CE-4FE3-B3F4-B86D069D02CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2853A70F-B5DE-40FF-B043-8C5C930A2130}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F404E775-C371-4550-829D-0302A42045D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E082F0FF-FDF9-46EF-9278-EE06ACD7F5EB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{85CA650D-14E0-4ACF-9310-F9944C707538}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49F54F2D-69BC-4595-94BF-241EEE579185}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6039F728-2430-4C37-837B-01032511D61C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F12978C0-34CA-4B02-9FEC-5F85E6A65CE1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B211DCF5-CDA9-4A7E-B6DE-2E54BC59D688}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{B023AB61-D9CA-456C-87C9-F6E6593E9497}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75F1F944-CAD5-40BF-9A5F-6614065044E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42F6C581-9241-4109-8BDB-4E93452165C1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92642D72-BF68-4FB0-9A53-3C3DBD1FA8B7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{813436F3-7319-4928-865B-0400D155F15D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6711118-0EA9-4D20-A2C7-53BC9CB00099}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E7B0883-A308-4826-B599-5741C4CA4B1A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B8FE29E-DDD1-4284-A878-0E5C1923701A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{354740D7-64EA-4537-9870-54684537A1C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD452101-549E-4D54-BAF6-D3CD54D4929F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DB7E5D87-1AC5-4915-A8DA-C81577D18514}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA321C76-1A6A-44BA-ABF9-2AF62AF38484}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{5B378A6D-0171-44A6-AB1C-9FD220FEA504}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6432,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7C74B9-34CE-4AB5-9B97-53F4F50ABC53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6830A3-0CDC-494C-97EF-68AEF99CD25C}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7707,18 +7707,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E711FC3A-F1D4-4E45-B5E5-5DE49F819832}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{43C7DF88-C410-43D2-A0B3-8DEA47C219D5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8304413A-E5B4-4A86-8659-FA29E4DE4706}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D2797CD-826E-44C4-AE7B-2BFDCE8AE9A2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66EE6A3D-1237-4E7D-BE3F-FEB28F1B46DD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9D81C293-16B2-4701-8940-68A450E28848}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{05344B03-DDE4-4EB2-BE50-D50A1590F2FA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5DE921C6-E29F-42BD-9B81-AC103E48E5FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6A82D95-5C76-4C8A-88A3-6BC7BB94DD5A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4104F6B5-14F7-44C0-8E9F-683F1885BC86}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6A0FCDC-6287-4499-A65D-E7EBDDFB5605}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{A024AE68-460B-43D9-B06C-F89961764745}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB89EF47-D4C0-4B0D-9CED-7C5FCF02EB2B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F941854-E106-4E59-8149-54E41C029413}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58EF3609-C304-40E7-B5B7-26B3D54695DA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{27DD9DC6-04CB-4EE2-B451-5784BC6A9278}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BBB20C33-099C-4A5B-B0D6-EF7F643DDC07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D685BDE9-5358-4F42-A87D-CBB0A678483D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D33AC85F-EB24-44EA-8980-5A0E06F87EFC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86F599DB-2490-41ED-BF09-EF079E576366}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88651224-A067-4F4A-9654-F5F5B5B56379}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92A1D354-1DB8-4CC5-AB0E-BEF244AEAA09}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20E4FD14-FDE9-4FF0-A39D-86358FD7F8AE}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{D1046AE5-0754-42F7-85E4-E86F7B4D7970}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7731,7 +7731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42454D71-8EA7-4030-B6A9-3C2AF7E7C190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB9C24-720C-47B6-8EB5-C986B0043D33}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9006,18 +9006,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29EE038A-AB0D-42DC-A2A1-0BAC450BBAEC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A66506EA-689F-4353-8414-28BACFEE4C08}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE42E057-7CD0-4CF7-AD14-BF649A85B8B8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{63262AF6-5DDD-4302-B21E-58B34D8EC375}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32BD7E17-21A7-46DC-974A-56FA278E3277}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EB13DEBF-61AF-4649-A159-FFBD15036BDA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AB5658A-309C-4170-9109-B7E967FB665E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AAFCB21-3CC6-4ACA-ABB5-A5D3BD887F5D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A8A4BFB9-0A1B-4CF9-9DCD-987AF80B928A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1AD64641-E2A1-4E9F-AE5E-741C26C0F74D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D416246C-4667-4C73-B41C-6C00AC9E330F}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{44704F6F-D515-4A3B-9240-530C26E2805B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E10F7840-3550-4B3F-8612-EC1F4A6019F6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE144E79-8AF9-44D5-AE1E-CB6D2ADB1ED4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CDC0DC13-053E-44F2-8623-C2A617ABA0AB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{19BFAD71-9A86-43B3-A874-7B129928FB32}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA8A7704-6A0F-405D-8ADA-424F36578ADC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4714240A-0A2F-4139-85AC-9EF14ACB0051}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A738E440-7304-4DFA-A090-937E2C433DB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF6171BE-20AC-4119-AE16-6EF3AC9E9B8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2403E0D-6AFE-4F47-AF27-653D1F77A181}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{521FFD27-9896-4984-AE46-79D295DEC508}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43B71AC8-9ACD-4DBF-8D2E-14F4AC643E50}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{5DEFDC03-0676-478C-9607-0F9DF4408B28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9030,7 +9030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B019C59E-A345-45EE-90C1-8D462C83D5DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8F31B5-7475-497E-8A72-623748F2F36D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10301,18 +10301,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A6AF180-59E6-4030-879F-4983B34E8306}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F25F6330-3927-4B37-9B69-1349BAEA8BEC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{36437451-6EDF-4F78-98D6-D4270BBFFF8C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0AEAC235-F1DB-4EE3-983E-187293E43627}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA2A0196-66F2-499D-9B3D-6F02D189004D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7F6BD70-A301-44DC-A756-ECD30EE768D2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F26FD3D-BD88-4DE7-BA1A-400B493E1140}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BCE45D14-AC8C-4D35-9F21-70F03004A30A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D73CA630-60D1-4D1F-91A6-3C23EB52B9CD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B2104B30-EC85-461F-A5B7-E3CEF207E26C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1A4AD79-CDA9-4465-B638-29A314C856BF}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{63F51CAB-A3C4-4F30-96F1-A8CB588EAABF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B53F79B-C3E1-464A-AC79-15EF2CDABCEB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6E7D0B61-6920-4C57-BDC0-E8337CF338F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CF6BD23-4D1A-4534-A078-379D84BDBC66}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{40B87F52-920B-4559-B97F-40466E7189CD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4FE6E725-9F17-4F73-B677-F3EBA8F930C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A0618D0-8A62-4A0C-AA9D-6B38AD378A8F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00316E53-4748-4775-89B8-44C12EA1578C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C732B6A-7A5C-438C-B2B4-89D907139614}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D86225A-4CCD-4C6D-B937-F20508EAF255}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{32FD4A74-11A3-41DC-898E-B8427F371D99}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42A0B9EB-1E15-4EF7-B1A1-D975582AF97D}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{84B85708-47EE-4524-9453-24478C11AFFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10325,7 +10325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10AF380-A652-4B7B-B1D9-DA2301059EE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6001ABB8-0A8A-49E4-9B49-E7FF5A841D81}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11600,18 +11600,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81A2A17E-42F5-4E72-9F76-3FB908613DE6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3D7DE4E-2AC6-48DD-918B-DD20551173CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{78F5727D-8B8E-4B72-9B11-7D099C23D6A4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{40E12E74-5A01-4E52-9CBA-D9621049DD20}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46F424D0-9AE2-47D5-BA1A-9403C16C943A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27D18007-9A78-4E6F-A8DF-9193E1E0C44E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F7DBE09-5288-4EA4-950B-200526E03936}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{652D021D-7CEE-4A75-A247-9DAF916B6F8D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF676E15-3AAB-4DA4-8F2D-09F0D0E63DDB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3AC2006-4954-4E57-A7B8-AAD5ECCEF451}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{069AD04A-4EA5-40F5-83E9-2749045356A9}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{3756744F-B8CA-4EFC-9705-039E15CC438B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF09B389-FACB-4843-8931-8978E53A6023}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3972E82C-BD2A-4B6E-A26F-D903A4B7D5BC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF4F3A8D-2830-434B-8A94-075447FAB8F7}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{68C36CE2-E4E2-4880-A23F-2C4C5F293646}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7865186A-CE2C-44CA-B9F4-3B5F662814A2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D27AA42A-423F-4992-843C-016A63F9C367}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5654BB0-9B38-4A17-946A-E810B6551656}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1312A0FE-41A1-43BF-A1F0-AFFC24B61F36}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F18A42F9-A590-4CB2-B7A3-866CDE2DC208}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0469C9B4-58AF-468B-A441-C4F73595B7CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{504C0D44-8B88-45F5-A8B3-824027F162AA}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{DAC84787-3996-4C69-870F-EF29C70986D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11624,7 +11624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC7E8EB-C642-4F70-86EA-A20810BB6DEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7F4C51-4957-46CF-AB93-5BD525402FBA}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12887,18 +12887,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D7F5C3D-F647-4900-87FB-4DDF4834ABAB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78F5B8BF-8638-41D9-8126-C22AD6D280F4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91116549-29C2-4883-87FC-08B0409C80F3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA2FC312-8B08-4C32-BA27-BCCA865654E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{545DD776-3CFB-4531-8F7C-31DE25D64F74}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{066B7FF6-60E9-4B4A-96F3-18AD2792BBB7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4BBE892-2550-42A5-A199-7E16A247A185}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A533275-60DB-4BF3-A50D-ECAE55EAA9CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{927D5102-B2BF-43B0-9955-200E9CE4B8DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B835B36E-5EAE-4850-99A9-EEB8F5D1F424}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10579D80-95B4-427B-8E47-1D3921082280}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{6C510B7D-2F7C-47B2-9C00-02FF00EA9EFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B64EC57-EE56-4202-8055-0BE92DAF5D0B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{421EF24D-0833-47BC-9744-C0EC21996696}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D38585A6-5BE0-4CB0-825F-C87B33AEBD79}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EA5E1FF-43B3-4CF0-8578-2F5948BEFFA6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{978955A6-0D0D-4959-9454-ECDFACBF0300}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1BE243D8-1DAE-4B22-86B2-640514E37928}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8693128D-9ABD-438B-87CB-6C1F0F5FF3EB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E16C9D7A-F13F-44DD-AEC2-00A4635C159E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09E32C2F-2197-45FD-8C7F-5638F956FDB8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{05935B80-8B2A-4F25-81B4-A15F6E5694B8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D203E35E-EF21-4E63-9C09-8EC1607D7C10}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{E674BDED-B82A-4E1D-B410-885CC19B63B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12911,7 +12911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35135148-185B-445D-A5BA-1A173119D484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25845676-BA8B-4534-A522-B06D315CCED5}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14178,18 +14178,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2EDE799E-B1F4-414A-965A-AD988898D5C5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8FBC823D-40AC-4C1B-9751-9758087F776C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B30A24D-B377-4AF8-8DF2-AE52B68D8A7C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E3D3550D-2726-4FA8-88E2-35A17D138D3A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F02FD56F-413E-40D6-B33D-47AD2F0AEF1F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44CE47AC-78A7-49C4-81A7-4A376DE4D19B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBB79A32-B64A-4DB6-8FD7-6FC1D43925F7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D268A8BA-51EA-4E9D-9F0F-D7E63AE007DC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97FE2F1A-C590-4F6D-AE78-B07F947AE94A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4E8CF995-BFAC-436E-87DB-50CC84DBE622}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D89512FC-A1A4-4EE2-BD72-9D18376F9508}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{68B7CC80-0622-422B-B1AB-BDA1DE8A4F6B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7ADDC0E-918C-4754-BA13-7ECBA55CEA80}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB90B87B-6AD2-403B-B4E3-1DCE612A76C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D63B2F86-2538-42A2-B8C6-F8394ECFA8D5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5C9674D6-7E5D-42A9-8AB7-21F2A8B3046F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75DC12D2-930A-4976-97D8-829B345B7260}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C372A9B6-3783-41E0-867E-3D19B56BF982}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9ABC59CA-AC12-4037-A462-3D5CEC775AD1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD63C8CA-F844-47BA-A13F-48F8F53819FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D0A8A60-7C5F-42F9-A7A5-47B2B83E2888}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{02703C6F-B800-4A7C-AED7-263969FC8DA8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{28DD51A0-9B75-47CC-8339-25F754256B09}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{A608593A-4329-4DCB-90A6-F19C942BD116}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14202,7 +14202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19FDDA2-E180-440B-8838-F549199CCCC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D707E671-D832-4644-9D1C-B0E63F8EDA38}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15465,18 +15465,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5E5F365B-0D40-4185-9FD8-BD060DE8CD3A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{457A0781-C0BB-4719-8011-866C5D1998A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E801ECA0-A7A6-44C0-8AB4-FF565A3452E3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{48CA0A9B-67B6-4D5D-8713-9A344B06CD2D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C9F46ED-0EF9-4D80-BC18-DCA57F92F600}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB595E8D-0E61-47A8-90FA-DA94497DAB58}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{736068B9-62D1-4A8E-8BD6-D7E831F45BBF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF519916-ACA8-4088-BE68-4A30C0BF1C63}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73066B6F-805E-47FD-BFDB-7665F05AD1F6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00CE8F5A-D4E2-4AEB-99A7-E0CCEEE123E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{97AA9C54-D2DD-48A8-99BD-DD0ABC46AD27}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{3956E2D9-B520-4D8D-99DF-EFEDDEC8E350}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95299D1C-2F25-4632-BF1B-4DB2722DA1F5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{849C7518-AFC2-4916-B0D1-FBED87782936}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A40AEDB7-A07C-4810-874A-FD035B20E88B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A09E2764-0AC7-45F1-8B5E-2DB326E1152E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8996C2CD-A828-4C99-A97D-9FEADA474B52}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24EFC514-6A35-4780-AF68-3CBDDBE3E6D3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82D36122-124B-41AE-9E60-9A3807039CEE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F0D040F-AD18-4C2D-AF32-BF0E8BA7AC74}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC0A5898-D733-47E3-AF88-5F6E9ECCD175}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C7D09CB-7263-44AB-B592-B8FA24C54EC6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27E967AE-D9D4-46AB-BEFF-000E192407DB}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{BDBFEC1B-C50F-4DF1-95CB-CD8D2758A712}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15489,7 +15489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8209E807-0CE5-4D79-8D70-CC654ADFC7E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841367BB-9BF2-4595-A9A2-755659C1602C}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16748,18 +16748,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C1671395-F762-4085-8FC1-D0FA17AEA2CB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{36B99783-2C0A-40D4-B5C6-E9949D3CD281}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{30E0019D-38DA-44A4-8A59-6A6D318EA10C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2140B58C-2CC9-4D07-94BE-95A5A7AF617A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16320CC6-7902-488A-A810-2591F4E72CED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A0B7E604-4095-4D78-9DFA-495AA49101AE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{612B1B68-648F-4398-8B13-FB03ECDC7CEF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD5455C4-DF67-4DD2-82C9-CD14F5A7F6A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EE90F61E-5F15-4FC3-A330-8BDA2D73ED6D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9493FA76-A549-431D-A414-2D025568395B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB2BD533-E3E6-4C5C-A7BF-915FBBDBC226}"/>
-    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{972B6B00-99EE-4CD8-989D-5106C38B1BDD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A507BB00-9680-4D78-BA8C-D0E8332F6FBA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8CE17E84-70BF-4699-AC41-2DB92D2152EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05B7E2E9-D73F-445C-B4F6-6FB41297DAA8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EB3127D9-4CC4-4ABE-A025-A24528CC54BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA61E9D7-FE47-4282-BE95-02BE2520A39B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E2842D6-9FE4-461E-9202-02361B887556}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C374AF95-5886-4715-AD50-A1E6244021F9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{596444B6-8494-4474-8152-648DE22C04F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB3F16D3-8D2E-41A1-B6F5-1F0AE5D6F6A4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{56D35251-DB69-404D-9A13-9CDAFB68FE19}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0FB71890-0014-4235-A224-91828AC9DB33}"/>
+    <hyperlink ref="E7" location="'ARALIK '!A1" display="ARALIK" xr:uid="{004B178A-B5E9-4ED0-8063-FEBCD72B795B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
